--- a/MULTIPLICACION MATRICES/RESULTADOS/MatrixMul_kernel/resultados.xlsx
+++ b/MULTIPLICACION MATRICES/RESULTADOS/MatrixMul_kernel/resultados.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
   <si>
     <t>(1/1)</t>
   </si>
@@ -68,25 +68,22 @@
     <t>['(2/2)']</t>
   </si>
   <si>
-    <t>['(8/8)']</t>
-  </si>
-  <si>
-    <t>['(1/1)', '(4/4)', '(16/16)', '(16/8)']</t>
-  </si>
-  <si>
-    <t>['(4/4)', '(4/32)']</t>
-  </si>
-  <si>
-    <t>['(8/8)', '(2/64)']</t>
-  </si>
-  <si>
-    <t>['(2/64)', '(4/32)']</t>
+    <t>['(1/1)', '(2/2)', '(4/4)']</t>
+  </si>
+  <si>
+    <t>['(2/2)', '(4/4)', '(8/8)']</t>
+  </si>
+  <si>
+    <t>['(2/2)', '(4/4)', '(8/8)', '(16/16)', '(8/16)', '(16/8)']</t>
+  </si>
+  <si>
+    <t>['(4/32)']</t>
+  </si>
+  <si>
+    <t>['(2/64)']</t>
   </si>
   <si>
     <t>['(1/128)']</t>
-  </si>
-  <si>
-    <t>['(2/64)']</t>
   </si>
 </sst>
 </file>
@@ -503,43 +500,43 @@
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>5.44E-06</v>
+        <v>6.144000000000001E-06</v>
       </c>
       <c r="C2" s="1">
         <v>5.12E-06</v>
       </c>
       <c r="D2" s="1">
-        <v>5.184000000000001E-06</v>
+        <v>6.144000000000001E-06</v>
       </c>
       <c r="E2" s="1">
-        <v>5.12E-06</v>
+        <v>6.048E-06</v>
       </c>
       <c r="F2" s="1">
-        <v>7.168000000000001E-06</v>
+        <v>6.144000000000001E-06</v>
       </c>
       <c r="G2" s="1">
         <v>1.3312E-05</v>
       </c>
       <c r="H2" s="1">
-        <v>6.544000000000001E-05</v>
+        <v>6.64E-05</v>
       </c>
       <c r="I2" s="1">
-        <v>0.000484352</v>
+        <v>0.00048448</v>
       </c>
       <c r="J2" s="1">
-        <v>0.005377184</v>
+        <v>0.00382032</v>
       </c>
       <c r="K2" s="1">
-        <v>0.032163808</v>
+        <v>0.03059536</v>
       </c>
       <c r="L2" s="1">
-        <v>0.317534208</v>
+        <v>0.306448608</v>
       </c>
       <c r="M2" s="1">
-        <v>2.550552576</v>
+        <v>2.443580832</v>
       </c>
       <c r="N2" s="1">
-        <v>20.848396576</v>
+        <v>19.851907872</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -547,43 +544,43 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>4.096E-06</v>
+        <v>5.12E-06</v>
       </c>
       <c r="C3" s="1">
-        <v>4.096E-06</v>
+        <v>5.12E-06</v>
       </c>
       <c r="D3" s="1">
         <v>5.12E-06</v>
       </c>
       <c r="E3" s="1">
-        <v>5.92E-06</v>
+        <v>5.12E-06</v>
       </c>
       <c r="F3" s="1">
+        <v>6.368000000000001E-06</v>
+      </c>
+      <c r="G3" s="1">
         <v>6.144000000000001E-06</v>
       </c>
-      <c r="G3" s="1">
-        <v>7.104E-06</v>
-      </c>
       <c r="H3" s="1">
-        <v>1.9456E-05</v>
+        <v>1.872E-05</v>
       </c>
       <c r="I3" s="1">
-        <v>0.000112736</v>
+        <v>0.000111328</v>
       </c>
       <c r="J3" s="1">
-        <v>0.0008509440000000001</v>
+        <v>0.0008446720000000001</v>
       </c>
       <c r="K3" s="1">
-        <v>0.006841376000000001</v>
+        <v>0.006829184</v>
       </c>
       <c r="L3" s="1">
-        <v>0.087554304</v>
+        <v>0.08292646400000001</v>
       </c>
       <c r="M3" s="1">
-        <v>0.77925376</v>
+        <v>0.745784544</v>
       </c>
       <c r="N3" s="1">
-        <v>6.403420736</v>
+        <v>6.054270688000001</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -591,7 +588,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="1">
-        <v>4.800000000000001E-06</v>
+        <v>5.12E-06</v>
       </c>
       <c r="D4" s="1">
         <v>5.12E-06</v>
@@ -603,28 +600,28 @@
         <v>5.12E-06</v>
       </c>
       <c r="G4" s="1">
-        <v>5.856E-06</v>
+        <v>6.08E-06</v>
       </c>
       <c r="H4" s="1">
-        <v>8.896000000000001E-06</v>
+        <v>1.0016E-05</v>
       </c>
       <c r="I4" s="1">
-        <v>4.48E-05</v>
+        <v>4.4032E-05</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000280576</v>
+        <v>0.000277504</v>
       </c>
       <c r="K4" s="1">
-        <v>0.002177024</v>
+        <v>0.00216816</v>
       </c>
       <c r="L4" s="1">
-        <v>0.020836608</v>
+        <v>0.020772352</v>
       </c>
       <c r="M4" s="1">
-        <v>0.228530112</v>
+        <v>0.224454944</v>
       </c>
       <c r="N4" s="1">
-        <v>2.108904608</v>
+        <v>2.045741952</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -632,37 +629,37 @@
         <v>3</v>
       </c>
       <c r="D5" s="1">
-        <v>4.096E-06</v>
+        <v>5.12E-06</v>
       </c>
       <c r="E5" s="1">
-        <v>5.312E-06</v>
+        <v>5.12E-06</v>
       </c>
       <c r="F5" s="1">
-        <v>5.408000000000001E-06</v>
+        <v>5.184000000000001E-06</v>
       </c>
       <c r="G5" s="1">
-        <v>5.12E-06</v>
+        <v>6.016000000000001E-06</v>
       </c>
       <c r="H5" s="1">
-        <v>9.216000000000001E-06</v>
+        <v>1.0016E-05</v>
       </c>
       <c r="I5" s="1">
-        <v>3.8528E-05</v>
+        <v>3.6864E-05</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000253824</v>
+        <v>0.000254656</v>
       </c>
       <c r="K5" s="1">
-        <v>0.00190656</v>
+        <v>0.001904512</v>
       </c>
       <c r="L5" s="1">
-        <v>0.015088672</v>
+        <v>0.015073504</v>
       </c>
       <c r="M5" s="1">
-        <v>0.123128832</v>
+        <v>0.122693952</v>
       </c>
       <c r="N5" s="1">
-        <v>0.999805696</v>
+        <v>0.9959154240000001</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -673,31 +670,31 @@
         <v>5.12E-06</v>
       </c>
       <c r="F6" s="1">
-        <v>7.968000000000001E-06</v>
+        <v>7.232E-06</v>
       </c>
       <c r="G6" s="1">
-        <v>9.184E-06</v>
+        <v>9.216000000000001E-06</v>
       </c>
       <c r="H6" s="1">
-        <v>1.4336E-05</v>
+        <v>1.4144E-05</v>
       </c>
       <c r="I6" s="1">
-        <v>7.680000000000001E-05</v>
+        <v>7.782400000000001E-05</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000474144</v>
+        <v>0.000475328</v>
       </c>
       <c r="K6" s="1">
-        <v>0.003590304</v>
+        <v>0.003586784</v>
       </c>
       <c r="L6" s="1">
-        <v>0.028973888</v>
+        <v>0.028930048</v>
       </c>
       <c r="M6" s="1">
-        <v>0.238698592</v>
+        <v>0.228073472</v>
       </c>
       <c r="N6" s="1">
-        <v>2.035364864</v>
+        <v>1.966243424</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -705,25 +702,25 @@
         <v>5</v>
       </c>
       <c r="H7" s="1">
-        <v>8.48E-06</v>
+        <v>8.192000000000001E-06</v>
       </c>
       <c r="I7" s="1">
-        <v>2.048E-05</v>
+        <v>2.0416E-05</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000125088</v>
+        <v>0.000131616</v>
       </c>
       <c r="K7" s="1">
-        <v>0.002162592</v>
+        <v>0.001433408</v>
       </c>
       <c r="L7" s="1">
-        <v>0.013850624</v>
+        <v>0.012976992</v>
       </c>
       <c r="M7" s="1">
-        <v>0.106631136</v>
+        <v>0.109138528</v>
       </c>
       <c r="N7" s="1">
-        <v>0.9001410560000001</v>
+        <v>0.849735392</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -734,22 +731,22 @@
         <v>2.2528E-05</v>
       </c>
       <c r="I8" s="1">
-        <v>0.000129024</v>
+        <v>0.000127872</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000908288</v>
+        <v>0.000905408</v>
       </c>
       <c r="K8" s="1">
-        <v>0.008111712</v>
+        <v>0.0069528</v>
       </c>
       <c r="L8" s="1">
-        <v>0.06411571200000001</v>
+        <v>0.08078336</v>
       </c>
       <c r="M8" s="1">
-        <v>2.433804096</v>
+        <v>2.349986912</v>
       </c>
       <c r="N8" s="1">
-        <v>24.379655264</v>
+        <v>23.913024512</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -760,25 +757,25 @@
         <v>5.12E-06</v>
       </c>
       <c r="H9" s="1">
-        <v>7.168000000000001E-06</v>
+        <v>8.192000000000001E-06</v>
       </c>
       <c r="I9" s="1">
-        <v>2.2464E-05</v>
+        <v>2.1504E-05</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000112896</v>
+        <v>0.000113728</v>
       </c>
       <c r="K9" s="1">
-        <v>0.000891904</v>
+        <v>0.000898048</v>
       </c>
       <c r="L9" s="1">
-        <v>0.008037600000000001</v>
+        <v>0.00751936</v>
       </c>
       <c r="M9" s="1">
-        <v>0.06514412800000001</v>
+        <v>0.062100448</v>
       </c>
       <c r="N9" s="1">
-        <v>0.53246464</v>
+        <v>0.49790272</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -786,28 +783,28 @@
         <v>8</v>
       </c>
       <c r="G10" s="1">
-        <v>8.896000000000001E-06</v>
+        <v>9.216000000000001E-06</v>
       </c>
       <c r="H10" s="1">
-        <v>2.2432E-05</v>
+        <v>2.2528E-05</v>
       </c>
       <c r="I10" s="1">
-        <v>0.000130752</v>
+        <v>0.000129024</v>
       </c>
       <c r="J10" s="1">
-        <v>0.0009144320000000001</v>
+        <v>0.0009168000000000001</v>
       </c>
       <c r="K10" s="1">
-        <v>0.009037056</v>
+        <v>0.007077888</v>
       </c>
       <c r="L10" s="1">
-        <v>0.063404352</v>
+        <v>0.059728896</v>
       </c>
       <c r="M10" s="1">
-        <v>1.068171264</v>
+        <v>1.004002304</v>
       </c>
       <c r="N10" s="1">
-        <v>13.873440768</v>
+        <v>14.00654736</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -815,31 +812,31 @@
         <v>9</v>
       </c>
       <c r="F11" s="1">
-        <v>5.12E-06</v>
+        <v>5.024000000000001E-06</v>
       </c>
       <c r="G11" s="1">
-        <v>6.112E-06</v>
+        <v>5.952000000000001E-06</v>
       </c>
       <c r="H11" s="1">
         <v>7.168000000000001E-06</v>
       </c>
       <c r="I11" s="1">
-        <v>2.56E-05</v>
+        <v>2.4768E-05</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000151552</v>
+        <v>0.00014768</v>
       </c>
       <c r="K11" s="1">
-        <v>0.001099776</v>
+        <v>0.001092608</v>
       </c>
       <c r="L11" s="1">
-        <v>0.010466304</v>
+        <v>0.008481792</v>
       </c>
       <c r="M11" s="1">
-        <v>0.074241824</v>
+        <v>0.070417888</v>
       </c>
       <c r="N11" s="1">
-        <v>0.663304192</v>
+        <v>0.616177312</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -850,28 +847,28 @@
         <v>7.168000000000001E-06</v>
       </c>
       <c r="G12" s="1">
-        <v>9.216000000000001E-06</v>
+        <v>8.832000000000001E-06</v>
       </c>
       <c r="H12" s="1">
-        <v>2.2528E-05</v>
+        <v>2.2336E-05</v>
       </c>
       <c r="I12" s="1">
-        <v>0.000128928</v>
+        <v>0.000129024</v>
       </c>
       <c r="J12" s="1">
-        <v>0.0009144320000000001</v>
+        <v>0.0009185280000000001</v>
       </c>
       <c r="K12" s="1">
-        <v>0.007046144000000001</v>
+        <v>0.007066848000000001</v>
       </c>
       <c r="L12" s="1">
-        <v>0.06056128</v>
+        <v>0.056855552</v>
       </c>
       <c r="M12" s="1">
-        <v>0.683918432</v>
+        <v>0.642920448</v>
       </c>
       <c r="N12" s="1">
-        <v>6.856108032000001</v>
+        <v>6.700611488000001</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -879,34 +876,34 @@
         <v>11</v>
       </c>
       <c r="E13" s="1">
-        <v>5.792000000000001E-06</v>
+        <v>5.12E-06</v>
       </c>
       <c r="F13" s="1">
-        <v>6.016000000000001E-06</v>
+        <v>5.12E-06</v>
       </c>
       <c r="G13" s="1">
-        <v>5.44E-06</v>
+        <v>6.112E-06</v>
       </c>
       <c r="H13" s="1">
-        <v>9.216000000000001E-06</v>
+        <v>1.0144E-05</v>
       </c>
       <c r="I13" s="1">
-        <v>4.0064E-05</v>
+        <v>3.993600000000001E-05</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000256384</v>
+        <v>0.000257024</v>
       </c>
       <c r="K13" s="1">
-        <v>0.00191408</v>
+        <v>0.001923968</v>
       </c>
       <c r="L13" s="1">
-        <v>0.017079616</v>
+        <v>0.015173632</v>
       </c>
       <c r="M13" s="1">
-        <v>0.13105664</v>
+        <v>0.123397152</v>
       </c>
       <c r="N13" s="1">
-        <v>1.072994304</v>
+        <v>1.011088224</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -917,31 +914,31 @@
         <v>5.12E-06</v>
       </c>
       <c r="F14" s="1">
-        <v>7.008E-06</v>
+        <v>6.112E-06</v>
       </c>
       <c r="G14" s="1">
-        <v>6.912E-06</v>
+        <v>7.168000000000001E-06</v>
       </c>
       <c r="H14" s="1">
-        <v>1.3312E-05</v>
+        <v>1.3952E-05</v>
       </c>
       <c r="I14" s="1">
-        <v>7.0336E-05</v>
+        <v>7.0592E-05</v>
       </c>
       <c r="J14" s="1">
-        <v>0.0004596480000000001</v>
+        <v>0.00046272</v>
       </c>
       <c r="K14" s="1">
-        <v>0.003612704</v>
+        <v>0.003626176</v>
       </c>
       <c r="L14" s="1">
-        <v>0.030451072</v>
+        <v>0.028625056</v>
       </c>
       <c r="M14" s="1">
-        <v>0.268727296</v>
+        <v>0.252524832</v>
       </c>
       <c r="N14" s="1">
-        <v>2.487750272</v>
+        <v>2.319941824</v>
       </c>
     </row>
   </sheetData>
@@ -979,7 +976,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="1">
-        <v>4.096E-06</v>
+        <v>5.12E-06</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>16</v>
@@ -993,10 +990,10 @@
         <v>4</v>
       </c>
       <c r="C3" s="1">
-        <v>4.096E-06</v>
+        <v>5.12E-06</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1007,10 +1004,10 @@
         <v>8</v>
       </c>
       <c r="C4" s="1">
-        <v>4.096E-06</v>
+        <v>5.12E-06</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1024,7 +1021,7 @@
         <v>5.12E-06</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1035,10 +1032,10 @@
         <v>32</v>
       </c>
       <c r="C6" s="1">
-        <v>5.12E-06</v>
+        <v>5.024000000000001E-06</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1052,7 +1049,7 @@
         <v>5.12E-06</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1066,7 +1063,7 @@
         <v>7.168000000000001E-06</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1077,7 +1074,7 @@
         <v>256</v>
       </c>
       <c r="C9" s="1">
-        <v>2.048E-05</v>
+        <v>2.0416E-05</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>22</v>
@@ -1091,10 +1088,10 @@
         <v>512</v>
       </c>
       <c r="C10" s="1">
-        <v>0.000112896</v>
+        <v>0.000113728</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1105,10 +1102,10 @@
         <v>1024</v>
       </c>
       <c r="C11" s="1">
-        <v>0.000891904</v>
+        <v>0.000898048</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1119,10 +1116,10 @@
         <v>2048</v>
       </c>
       <c r="C12" s="1">
-        <v>0.008037600000000001</v>
+        <v>0.00751936</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1133,10 +1130,10 @@
         <v>4096</v>
       </c>
       <c r="C13" s="1">
-        <v>0.06514412800000001</v>
+        <v>0.062100448</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1147,10 +1144,10 @@
         <v>8192</v>
       </c>
       <c r="C14" s="1">
-        <v>0.53246464</v>
+        <v>0.49790272</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/MULTIPLICACION MATRICES/RESULTADOS/MatrixMul_kernel/resultados.xlsx
+++ b/MULTIPLICACION MATRICES/RESULTADOS/MatrixMul_kernel/resultados.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
   <si>
     <t>(1/1)</t>
   </si>
@@ -68,22 +68,25 @@
     <t>['(2/2)']</t>
   </si>
   <si>
-    <t>['(1/1)', '(2/2)', '(4/4)']</t>
-  </si>
-  <si>
-    <t>['(2/2)', '(4/4)', '(8/8)']</t>
-  </si>
-  <si>
-    <t>['(2/2)', '(4/4)', '(8/8)', '(16/16)', '(8/16)', '(16/8)']</t>
+    <t>['(2/2)', '(4/4)']</t>
+  </si>
+  <si>
+    <t>['(1/1)', '(2/2)', '(4/4)', '(8/8)', '(16/16)']</t>
+  </si>
+  <si>
+    <t>['(8/8)', '(4/32)', '(8/16)']</t>
+  </si>
+  <si>
+    <t>['(4/4)', '(2/64)']</t>
   </si>
   <si>
     <t>['(4/32)']</t>
   </si>
   <si>
+    <t>['(1/128)']</t>
+  </si>
+  <si>
     <t>['(2/64)']</t>
-  </si>
-  <si>
-    <t>['(1/128)']</t>
   </si>
 </sst>
 </file>
@@ -503,40 +506,40 @@
         <v>6.144000000000001E-06</v>
       </c>
       <c r="C2" s="1">
-        <v>5.12E-06</v>
+        <v>5.216000000000001E-06</v>
       </c>
       <c r="D2" s="1">
-        <v>6.144000000000001E-06</v>
+        <v>5.312E-06</v>
       </c>
       <c r="E2" s="1">
-        <v>6.048E-06</v>
+        <v>5.12E-06</v>
       </c>
       <c r="F2" s="1">
-        <v>6.144000000000001E-06</v>
+        <v>6.944000000000001E-06</v>
       </c>
       <c r="G2" s="1">
-        <v>1.3312E-05</v>
+        <v>1.3184E-05</v>
       </c>
       <c r="H2" s="1">
-        <v>6.64E-05</v>
+        <v>6.5536E-05</v>
       </c>
       <c r="I2" s="1">
-        <v>0.00048448</v>
+        <v>0.000485312</v>
       </c>
       <c r="J2" s="1">
-        <v>0.00382032</v>
+        <v>0.003820544</v>
       </c>
       <c r="K2" s="1">
-        <v>0.03059536</v>
+        <v>0.031401152</v>
       </c>
       <c r="L2" s="1">
-        <v>0.306448608</v>
+        <v>0.301273664</v>
       </c>
       <c r="M2" s="1">
-        <v>2.443580832</v>
+        <v>2.441066592</v>
       </c>
       <c r="N2" s="1">
-        <v>19.851907872</v>
+        <v>19.883609824</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -544,10 +547,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>5.12E-06</v>
+        <v>5.152E-06</v>
       </c>
       <c r="C3" s="1">
-        <v>5.12E-06</v>
+        <v>5.024000000000001E-06</v>
       </c>
       <c r="D3" s="1">
         <v>5.12E-06</v>
@@ -556,31 +559,31 @@
         <v>5.12E-06</v>
       </c>
       <c r="F3" s="1">
-        <v>6.368000000000001E-06</v>
+        <v>6.208000000000001E-06</v>
       </c>
       <c r="G3" s="1">
-        <v>6.144000000000001E-06</v>
+        <v>7.168000000000001E-06</v>
       </c>
       <c r="H3" s="1">
-        <v>1.872E-05</v>
+        <v>1.8432E-05</v>
       </c>
       <c r="I3" s="1">
-        <v>0.000111328</v>
+        <v>0.00011264</v>
       </c>
       <c r="J3" s="1">
-        <v>0.0008446720000000001</v>
+        <v>0.0008467520000000001</v>
       </c>
       <c r="K3" s="1">
-        <v>0.006829184</v>
+        <v>0.006837248000000001</v>
       </c>
       <c r="L3" s="1">
-        <v>0.08292646400000001</v>
+        <v>0.083050464</v>
       </c>
       <c r="M3" s="1">
-        <v>0.745784544</v>
+        <v>0.7466659520000001</v>
       </c>
       <c r="N3" s="1">
-        <v>6.054270688000001</v>
+        <v>6.060546144000001</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -588,7 +591,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="1">
-        <v>5.12E-06</v>
+        <v>5.184000000000001E-06</v>
       </c>
       <c r="D4" s="1">
         <v>5.12E-06</v>
@@ -597,31 +600,31 @@
         <v>5.12E-06</v>
       </c>
       <c r="F4" s="1">
-        <v>5.12E-06</v>
+        <v>5.760000000000001E-06</v>
       </c>
       <c r="G4" s="1">
-        <v>6.08E-06</v>
+        <v>5.12E-06</v>
       </c>
       <c r="H4" s="1">
-        <v>1.0016E-05</v>
+        <v>9.216000000000001E-06</v>
       </c>
       <c r="I4" s="1">
         <v>4.4032E-05</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000277504</v>
+        <v>0.000279552</v>
       </c>
       <c r="K4" s="1">
-        <v>0.00216816</v>
+        <v>0.002172992</v>
       </c>
       <c r="L4" s="1">
-        <v>0.020772352</v>
+        <v>0.020819968</v>
       </c>
       <c r="M4" s="1">
-        <v>0.224454944</v>
+        <v>0.228471488</v>
       </c>
       <c r="N4" s="1">
-        <v>2.045741952</v>
+        <v>2.030605472</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -629,37 +632,37 @@
         <v>3</v>
       </c>
       <c r="D5" s="1">
-        <v>5.12E-06</v>
+        <v>5.28E-06</v>
       </c>
       <c r="E5" s="1">
         <v>5.12E-06</v>
       </c>
       <c r="F5" s="1">
-        <v>5.184000000000001E-06</v>
+        <v>5.12E-06</v>
       </c>
       <c r="G5" s="1">
-        <v>6.016000000000001E-06</v>
+        <v>5.888E-06</v>
       </c>
       <c r="H5" s="1">
-        <v>1.0016E-05</v>
+        <v>1.0208E-05</v>
       </c>
       <c r="I5" s="1">
-        <v>3.6864E-05</v>
+        <v>3.6768E-05</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000254656</v>
+        <v>0.000253952</v>
       </c>
       <c r="K5" s="1">
-        <v>0.001904512</v>
+        <v>0.00190672</v>
       </c>
       <c r="L5" s="1">
-        <v>0.015073504</v>
+        <v>0.015090016</v>
       </c>
       <c r="M5" s="1">
-        <v>0.122693952</v>
+        <v>0.12253184</v>
       </c>
       <c r="N5" s="1">
-        <v>0.9959154240000001</v>
+        <v>0.9943395840000001</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -670,31 +673,31 @@
         <v>5.12E-06</v>
       </c>
       <c r="F6" s="1">
-        <v>7.232E-06</v>
+        <v>7.168000000000001E-06</v>
       </c>
       <c r="G6" s="1">
-        <v>9.216000000000001E-06</v>
+        <v>9.120000000000001E-06</v>
       </c>
       <c r="H6" s="1">
-        <v>1.4144E-05</v>
+        <v>1.4336E-05</v>
       </c>
       <c r="I6" s="1">
-        <v>7.782400000000001E-05</v>
+        <v>7.680000000000001E-05</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000475328</v>
+        <v>0.000474112</v>
       </c>
       <c r="K6" s="1">
-        <v>0.003586784</v>
+        <v>0.003590144</v>
       </c>
       <c r="L6" s="1">
-        <v>0.028930048</v>
+        <v>0.028980224</v>
       </c>
       <c r="M6" s="1">
-        <v>0.228073472</v>
+        <v>0.227768032</v>
       </c>
       <c r="N6" s="1">
-        <v>1.966243424</v>
+        <v>1.962377248</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -705,22 +708,22 @@
         <v>8.192000000000001E-06</v>
       </c>
       <c r="I7" s="1">
-        <v>2.0416E-05</v>
+        <v>2.048E-05</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000131616</v>
+        <v>0.000127168</v>
       </c>
       <c r="K7" s="1">
-        <v>0.001433408</v>
+        <v>0.001362912</v>
       </c>
       <c r="L7" s="1">
-        <v>0.012976992</v>
+        <v>0.013812672</v>
       </c>
       <c r="M7" s="1">
-        <v>0.109138528</v>
+        <v>0.108772352</v>
       </c>
       <c r="N7" s="1">
-        <v>0.849735392</v>
+        <v>0.8481136640000001</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -731,22 +734,22 @@
         <v>2.2528E-05</v>
       </c>
       <c r="I8" s="1">
-        <v>0.000127872</v>
+        <v>0.00012832</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000905408</v>
+        <v>0.000908128</v>
       </c>
       <c r="K8" s="1">
-        <v>0.0069528</v>
+        <v>0.006986752000000001</v>
       </c>
       <c r="L8" s="1">
-        <v>0.08078336</v>
+        <v>0.064255808</v>
       </c>
       <c r="M8" s="1">
-        <v>2.349986912</v>
+        <v>2.377441216</v>
       </c>
       <c r="N8" s="1">
-        <v>23.913024512</v>
+        <v>24.02670256</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -763,19 +766,19 @@
         <v>2.1504E-05</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000113728</v>
+        <v>0.00011264</v>
       </c>
       <c r="K9" s="1">
-        <v>0.000898048</v>
+        <v>0.0008826880000000001</v>
       </c>
       <c r="L9" s="1">
-        <v>0.00751936</v>
+        <v>0.007442496000000001</v>
       </c>
       <c r="M9" s="1">
-        <v>0.062100448</v>
+        <v>0.061979392</v>
       </c>
       <c r="N9" s="1">
-        <v>0.49790272</v>
+        <v>0.502601728</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -783,28 +786,28 @@
         <v>8</v>
       </c>
       <c r="G10" s="1">
-        <v>9.216000000000001E-06</v>
+        <v>9.024E-06</v>
       </c>
       <c r="H10" s="1">
         <v>2.2528E-05</v>
       </c>
       <c r="I10" s="1">
-        <v>0.000129024</v>
+        <v>0.000129984</v>
       </c>
       <c r="J10" s="1">
-        <v>0.0009168000000000001</v>
+        <v>0.0009144320000000001</v>
       </c>
       <c r="K10" s="1">
-        <v>0.007077888</v>
+        <v>0.007028736000000001</v>
       </c>
       <c r="L10" s="1">
-        <v>0.059728896</v>
+        <v>0.05990400000000001</v>
       </c>
       <c r="M10" s="1">
-        <v>1.004002304</v>
+        <v>1.011731456</v>
       </c>
       <c r="N10" s="1">
-        <v>14.00654736</v>
+        <v>13.870876672</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -812,31 +815,31 @@
         <v>9</v>
       </c>
       <c r="F11" s="1">
-        <v>5.024000000000001E-06</v>
+        <v>5.12E-06</v>
       </c>
       <c r="G11" s="1">
-        <v>5.952000000000001E-06</v>
+        <v>5.792000000000001E-06</v>
       </c>
       <c r="H11" s="1">
-        <v>7.168000000000001E-06</v>
+        <v>7.968000000000001E-06</v>
       </c>
       <c r="I11" s="1">
-        <v>2.4768E-05</v>
+        <v>2.56E-05</v>
       </c>
       <c r="J11" s="1">
-        <v>0.00014768</v>
+        <v>0.00014928</v>
       </c>
       <c r="K11" s="1">
-        <v>0.001092608</v>
+        <v>0.00109072</v>
       </c>
       <c r="L11" s="1">
-        <v>0.008481792</v>
+        <v>0.008452096000000001</v>
       </c>
       <c r="M11" s="1">
-        <v>0.070417888</v>
+        <v>0.06983155200000001</v>
       </c>
       <c r="N11" s="1">
-        <v>0.616177312</v>
+        <v>0.612086816</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -844,31 +847,31 @@
         <v>10</v>
       </c>
       <c r="F12" s="1">
-        <v>7.168000000000001E-06</v>
+        <v>8.000000000000001E-06</v>
       </c>
       <c r="G12" s="1">
-        <v>8.832000000000001E-06</v>
+        <v>8.960000000000001E-06</v>
       </c>
       <c r="H12" s="1">
-        <v>2.2336E-05</v>
+        <v>2.2208E-05</v>
       </c>
       <c r="I12" s="1">
-        <v>0.000129024</v>
+        <v>0.00012816</v>
       </c>
       <c r="J12" s="1">
-        <v>0.0009185280000000001</v>
+        <v>0.0009144320000000001</v>
       </c>
       <c r="K12" s="1">
-        <v>0.007066848000000001</v>
+        <v>0.007043072</v>
       </c>
       <c r="L12" s="1">
-        <v>0.056855552</v>
+        <v>0.05671340800000001</v>
       </c>
       <c r="M12" s="1">
-        <v>0.642920448</v>
+        <v>0.645615456</v>
       </c>
       <c r="N12" s="1">
-        <v>6.700611488000001</v>
+        <v>6.723338912</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -876,34 +879,34 @@
         <v>11</v>
       </c>
       <c r="E13" s="1">
-        <v>5.12E-06</v>
+        <v>5.184000000000001E-06</v>
       </c>
       <c r="F13" s="1">
         <v>5.12E-06</v>
       </c>
       <c r="G13" s="1">
-        <v>6.112E-06</v>
+        <v>5.824E-06</v>
       </c>
       <c r="H13" s="1">
-        <v>1.0144E-05</v>
+        <v>9.504000000000001E-06</v>
       </c>
       <c r="I13" s="1">
-        <v>3.993600000000001E-05</v>
+        <v>4E-05</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000257024</v>
+        <v>0.000256</v>
       </c>
       <c r="K13" s="1">
-        <v>0.001923968</v>
+        <v>0.001917728</v>
       </c>
       <c r="L13" s="1">
-        <v>0.015173632</v>
+        <v>0.015129824</v>
       </c>
       <c r="M13" s="1">
-        <v>0.123397152</v>
+        <v>0.130936832</v>
       </c>
       <c r="N13" s="1">
-        <v>1.011088224</v>
+        <v>1.015443232</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -911,34 +914,34 @@
         <v>12</v>
       </c>
       <c r="E14" s="1">
-        <v>5.12E-06</v>
+        <v>6.144000000000001E-06</v>
       </c>
       <c r="F14" s="1">
-        <v>6.112E-06</v>
+        <v>6.144000000000001E-06</v>
       </c>
       <c r="G14" s="1">
-        <v>7.168000000000001E-06</v>
+        <v>6.144000000000001E-06</v>
       </c>
       <c r="H14" s="1">
-        <v>1.3952E-05</v>
+        <v>1.3376E-05</v>
       </c>
       <c r="I14" s="1">
-        <v>7.0592E-05</v>
+        <v>7.030400000000001E-05</v>
       </c>
       <c r="J14" s="1">
-        <v>0.00046272</v>
+        <v>0.000477184</v>
       </c>
       <c r="K14" s="1">
-        <v>0.003626176</v>
+        <v>0.003611936</v>
       </c>
       <c r="L14" s="1">
-        <v>0.028625056</v>
+        <v>0.029461504</v>
       </c>
       <c r="M14" s="1">
-        <v>0.252524832</v>
+        <v>0.253639744</v>
       </c>
       <c r="N14" s="1">
-        <v>2.319941824</v>
+        <v>2.313750496</v>
       </c>
     </row>
   </sheetData>
@@ -976,7 +979,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="1">
-        <v>5.12E-06</v>
+        <v>5.152E-06</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>16</v>
@@ -990,10 +993,10 @@
         <v>4</v>
       </c>
       <c r="C3" s="1">
-        <v>5.12E-06</v>
+        <v>5.024000000000001E-06</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1007,7 +1010,7 @@
         <v>5.12E-06</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1021,7 +1024,7 @@
         <v>5.12E-06</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1032,10 +1035,10 @@
         <v>32</v>
       </c>
       <c r="C6" s="1">
-        <v>5.024000000000001E-06</v>
+        <v>5.12E-06</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1049,7 +1052,7 @@
         <v>5.12E-06</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1060,10 +1063,10 @@
         <v>128</v>
       </c>
       <c r="C8" s="1">
-        <v>7.168000000000001E-06</v>
+        <v>7.968000000000001E-06</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1074,7 +1077,7 @@
         <v>256</v>
       </c>
       <c r="C9" s="1">
-        <v>2.0416E-05</v>
+        <v>2.048E-05</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>22</v>
@@ -1088,10 +1091,10 @@
         <v>512</v>
       </c>
       <c r="C10" s="1">
-        <v>0.000113728</v>
+        <v>0.00011264</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1102,10 +1105,10 @@
         <v>1024</v>
       </c>
       <c r="C11" s="1">
-        <v>0.000898048</v>
+        <v>0.0008826880000000001</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1116,10 +1119,10 @@
         <v>2048</v>
       </c>
       <c r="C12" s="1">
-        <v>0.00751936</v>
+        <v>0.007442496000000001</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1130,10 +1133,10 @@
         <v>4096</v>
       </c>
       <c r="C13" s="1">
-        <v>0.062100448</v>
+        <v>0.061979392</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1144,10 +1147,10 @@
         <v>8192</v>
       </c>
       <c r="C14" s="1">
-        <v>0.49790272</v>
+        <v>0.502601728</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
